--- a/dt/World_Cuisine_Checked_URLs.xlsx
+++ b/dt/World_Cuisine_Checked_URLs.xlsx
@@ -451,11 +451,6 @@
       <c r="G2">
         <v>35</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://upload.wikimedia.org/wikipedia/commons/6/6e/Fesenjan.jpg</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Fesenjan#/media/File:Fesenjan.jpg</t>
@@ -463,7 +458,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>BAD: 404</t>
+          <t>EMPTY</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -511,7 +506,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://upload.wikimedia.org/wikipedia/commons/2/2d/Ghormeh_Sabzi.jpg</t>
+          <t>https://en.wikipedia.org/wiki/Ghormeh_sabzi#/media/File:Ghormeh_Sabzi.JPG</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -521,7 +516,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>BAD: 404</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -569,7 +564,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://upload.wikimedia.org/wikipedia/commons/3/3e/Tahchin.jpg</t>
+          <t>https://en.wikipedia.org/wiki/Tahchin#/media/File:Tachin.jpg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -579,7 +574,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>BAD: 404</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -625,14 +620,24 @@
       <c r="G5">
         <v>64</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/saffronandherbs.com/wp-content/uploads/2021/01/Zereshk-Polo-ba-Morgh.jpg?resize=840%2C959&amp;ssl=1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://saffronandherbs.com/2021/01/29/zereshk-polo-ba-morgh/</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -673,14 +678,24 @@
       <c r="G6">
         <v>32</v>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Kabab_koobideh#/media/File:Kabab_koobideh_bbq_persian_food.jpg</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Kabab_koobideh</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -721,14 +736,24 @@
       <c r="G7">
         <v>58</v>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi4ZxmtEBukr5XkTsybMCAMvDFrPHZFbM7ZbRxDqFjd5_iW8NvdPDD29Lg1Ee0RtyygWOAh5fYkkVgtoWWaImHP17UpX-cdHmpSlaoZ9FPRMr5cxbqI3hecK4zgRo9TNmLIqAgBQobkJ375/s1600/Dizi-TurmericSaffron.jpg</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://turmericsaffron.blogspot.com/2013/02/dizi-traditional-iranian-lamb-chickpea.html</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -769,14 +794,24 @@
       <c r="G8">
         <v>63</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Gheimeh#/media/File:Gheymeh_stew.jpg</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Gheimeh</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -817,14 +852,24 @@
       <c r="G9">
         <v>22</v>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Aush_reshteh#/media/File:Ash_Reshteh.JPG</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Aush_reshteh</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -865,14 +910,24 @@
       <c r="G10">
         <v>79</v>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://www.foodandwine.com/thmb/uXSd8Php74vIWyOF9S1w_TpH8B8=/750x0/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/kookoo-sabri-all-about-eggs-XL-BLOG0417-4771f201e7bb49768b962da7d387d72d.jpg</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.foodandwine.com/recipes/kookoo-sabzi</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -913,14 +968,24 @@
       <c r="G11">
         <v>77</v>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Sholezard#/media/File:Sholezard_for_Nowruz.jpg</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Sholezard</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
